--- a/biology/Zoologie/Hexasterophora/Hexasterophora.xlsx
+++ b/biology/Zoologie/Hexasterophora/Hexasterophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexasterophora sont une sous-classe d'éponges hexactinellides.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-classe des Hexasterophora a été créée en 1886 par le zoologiste allemand Franz Eilhard Schulze (1840-1921)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-classe des Hexasterophora a été créée en 1886 par le zoologiste allemand Franz Eilhard Schulze (1840-1921).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (24 août 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (24 août 2021) :
 Lychniscosida Schrammen, 1903
 Lyssacinosida Zittel, 1877
 Sceptrulophora Mehl, 1992
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) F. E. Schulze, « Über den Bau und das System der Hexactinelliden », Abhandlungen der Königlichen Akademie der Wissenschaften zu Berlin, Berlin, Ferdinand Dümmler (d), inconnu et inconnu, vol. 1886,‎ 1886, p. 1-97 (OCLC 9639255, lire en ligne)</t>
         </is>
